--- a/biology/Botanique/Emblingiaceae/Emblingiaceae.xlsx
+++ b/biology/Botanique/Emblingiaceae/Emblingiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Emblingiaceae sont une famille de plantes dicotylédones. Elle ne comprend qu'une seule espèce Emblingia calceoliflora, un sous-arbrisseau endémique de l'ouest de l'Australie.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Emblingia, nommé en l’honneur du  médecin anglais Thomas Embling (en) (1814–1893), qui œuvra pour le bien être des patients d’un asile psychiatrique à Melbourne (Australie) et soutint divers mouvements populaires notamment celui des mineurs d'Eureka en 1854 et l’année suivante un mouvement ouvrier dans lequel un slogan lui est attribué « Huit heures de travail, huit heures de pause, huit heures de repos »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Emblingia, nommé en l’honneur du  médecin anglais Thomas Embling (en) (1814–1893), qui œuvra pour le bien être des patients d’un asile psychiatrique à Melbourne (Australie) et soutint divers mouvements populaires notamment celui des mineurs d'Eureka en 1854 et l’année suivante un mouvement ouvrier dans lequel un slogan lui est attribué « Huit heures de travail, huit heures de pause, huit heures de repos ».
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[2], cette famille n'existe pas et l'espèce est située dans la famille des Polygalaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981), cette famille n'existe pas et l'espèce est située dans la famille des Polygalaceae.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (21 juin 2010)[3], NCBI  (21 juin 2010)[4] et DELTA Angio           (21 juin 2010)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (21 juin 2010), NCBI  (21 juin 2010) et DELTA Angio           (21 juin 2010) :
 Emblingia F.Muell.</t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (21 juin 2010)[3], NCBI  (21 juin 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (21 juin 2010), NCBI  (21 juin 2010) :
 genre Emblingia
 Emblingia calceoliflora</t>
         </is>
